--- a/Lab1/Results1.xlsx
+++ b/Lab1/Results1.xlsx
@@ -690,7 +690,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
